--- a/data/trans_orig/CoPsoQ_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/CoPsoQ_R2-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>134082</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>117614</v>
+        <v>118597</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>151716</v>
+        <v>151432</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5061576351459209</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4439919922152594</v>
+        <v>0.447701592384643</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5727288494415177</v>
+        <v>0.5716539583144032</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>64</v>
@@ -764,19 +764,19 @@
         <v>67593</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55592</v>
+        <v>55370</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>81524</v>
+        <v>80125</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.429810301210803</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3534960454206427</v>
+        <v>0.3520835124473754</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5183910626894673</v>
+        <v>0.509496776126635</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>196</v>
@@ -785,19 +785,19 @@
         <v>201675</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>179393</v>
+        <v>182024</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>221777</v>
+        <v>221802</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4777170550578637</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.424936422561193</v>
+        <v>0.4311684789964786</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5253333353527549</v>
+        <v>0.5253940891374979</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>130819</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>113185</v>
+        <v>113469</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>147287</v>
+        <v>146304</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4938423648540791</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4272711505584824</v>
+        <v>0.4283460416855968</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5560080077847406</v>
+        <v>0.552298407615357</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>82</v>
@@ -835,19 +835,19 @@
         <v>89670</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>75739</v>
+        <v>77138</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>101671</v>
+        <v>101893</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.570189698789197</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4816089373105323</v>
+        <v>0.4905032238733649</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6465039545793573</v>
+        <v>0.6479164875526245</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>206</v>
@@ -856,19 +856,19 @@
         <v>220489</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>200387</v>
+        <v>200362</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>242771</v>
+        <v>240140</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5222829449421363</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.474666664647245</v>
+        <v>0.4746059108625021</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.575063577438807</v>
+        <v>0.5688315210035213</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>239266</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>219852</v>
+        <v>219020</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>259933</v>
+        <v>259449</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5972865434281462</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5488220048692108</v>
+        <v>0.5467451406744535</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6488794917337481</v>
+        <v>0.6476700781673124</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>130</v>
@@ -981,19 +981,19 @@
         <v>143133</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>127771</v>
+        <v>126110</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>159129</v>
+        <v>160540</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5420619306984561</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4838841666661238</v>
+        <v>0.4775972079315424</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6026431792613939</v>
+        <v>0.6079869855950375</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>350</v>
@@ -1002,19 +1002,19 @@
         <v>382398</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>354582</v>
+        <v>355208</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>408823</v>
+        <v>408615</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5753465637026121</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5334950455858289</v>
+        <v>0.5344373508007977</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6151036995644041</v>
+        <v>0.6147913867116522</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>161322</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>140655</v>
+        <v>141139</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>180736</v>
+        <v>181568</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4027134565718537</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3511205082662519</v>
+        <v>0.3523299218326876</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4511779951307892</v>
+        <v>0.4532548593255465</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>109</v>
@@ -1052,19 +1052,19 @@
         <v>120919</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>104923</v>
+        <v>103512</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>136281</v>
+        <v>137942</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.457938069301544</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3973568207386059</v>
+        <v>0.3920130144049624</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5161158333338761</v>
+        <v>0.5224027920684575</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>258</v>
@@ -1073,19 +1073,19 @@
         <v>282242</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>255817</v>
+        <v>256025</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>310058</v>
+        <v>309432</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.424653436297388</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3848963004355964</v>
+        <v>0.3852086132883478</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4665049544141711</v>
+        <v>0.4655626491992023</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>189143</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>170141</v>
+        <v>170214</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>207084</v>
+        <v>206787</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5975584537139497</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5375247088190434</v>
+        <v>0.53775656692971</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6542403957182861</v>
+        <v>0.6533003414344607</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>117</v>
@@ -1198,19 +1198,19 @@
         <v>130633</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>114644</v>
+        <v>115883</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>145278</v>
+        <v>146058</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6250257453892103</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5485255968580928</v>
+        <v>0.5544523883802035</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6950979918446601</v>
+        <v>0.6988265915137383</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>291</v>
@@ -1219,19 +1219,19 @@
         <v>319775</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>291913</v>
+        <v>295781</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>341292</v>
+        <v>344099</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6084822329850055</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5554654449785472</v>
+        <v>0.5628252824490202</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6494264800960586</v>
+        <v>0.6547660616181826</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>127383</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>109442</v>
+        <v>109739</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>146385</v>
+        <v>146312</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4024415462860503</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3457596042817139</v>
+        <v>0.3466996585655393</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4624752911809566</v>
+        <v>0.4622434330702899</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>70</v>
@@ -1269,19 +1269,19 @@
         <v>78371</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>63726</v>
+        <v>62946</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>94360</v>
+        <v>93121</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3749742546107897</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.304902008155339</v>
+        <v>0.3011734084862617</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4514744031419071</v>
+        <v>0.4455476116197963</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>182</v>
@@ -1290,19 +1290,19 @@
         <v>205754</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>184237</v>
+        <v>181430</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>233616</v>
+        <v>229748</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3915177670149945</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.350573519903942</v>
+        <v>0.3452339383818178</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4445345550214531</v>
+        <v>0.4371747175509799</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>247517</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>227892</v>
+        <v>228125</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>269696</v>
+        <v>266071</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6069487260757809</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5588258941461944</v>
+        <v>0.5593977932638742</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6613348507765435</v>
+        <v>0.6524461764389762</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>154</v>
@@ -1415,19 +1415,19 @@
         <v>161721</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>143693</v>
+        <v>143928</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>178406</v>
+        <v>180097</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5470439077399931</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4860603865991554</v>
+        <v>0.4868561377023241</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6034807942949222</v>
+        <v>0.6092025677864118</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>396</v>
@@ -1436,19 +1436,19 @@
         <v>409238</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>378973</v>
+        <v>382496</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>432753</v>
+        <v>435958</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5817728775066122</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.53874737522975</v>
+        <v>0.5437566694330203</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6152014503463547</v>
+        <v>0.619758238756421</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>160288</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>138109</v>
+        <v>141734</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>179913</v>
+        <v>179680</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3930512739242192</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3386651492234564</v>
+        <v>0.3475538235610238</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4411741058538056</v>
+        <v>0.4406022067361255</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>128</v>
@@ -1486,19 +1486,19 @@
         <v>133907</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>117222</v>
+        <v>115531</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>151935</v>
+        <v>151700</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4529560922600069</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3965192057050782</v>
+        <v>0.3907974322135886</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5139396134008446</v>
+        <v>0.5131438622976761</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>280</v>
@@ -1507,19 +1507,19 @@
         <v>294195</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>270680</v>
+        <v>267475</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>324460</v>
+        <v>320937</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4182271224933878</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3847985496536453</v>
+        <v>0.3802417612435789</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4612526247702499</v>
+        <v>0.4562433305669797</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>810007</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>772590</v>
+        <v>767539</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>844490</v>
+        <v>845899</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5828143100462408</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5558919396994488</v>
+        <v>0.5522576416574617</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6076253407561226</v>
+        <v>0.6086394946735727</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>465</v>
@@ -1632,19 +1632,19 @@
         <v>503080</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>471463</v>
+        <v>474003</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>533551</v>
+        <v>533910</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5433142340123405</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5091686102007312</v>
+        <v>0.5119112018312167</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5762217168479726</v>
+        <v>0.5766099618323495</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1233</v>
@@ -1653,19 +1653,19 @@
         <v>1313087</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1260925</v>
+        <v>1260190</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1358322</v>
+        <v>1359877</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5670204211383862</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5444954630452787</v>
+        <v>0.5441783341445088</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5865539331078564</v>
+        <v>0.5872251502165156</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>579813</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>545330</v>
+        <v>543921</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>617230</v>
+        <v>622281</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4171856899537592</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3923746592438774</v>
+        <v>0.3913605053264275</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4441080603005515</v>
+        <v>0.4477423583425383</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>389</v>
@@ -1703,19 +1703,19 @@
         <v>422867</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>392396</v>
+        <v>392037</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>454484</v>
+        <v>451944</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4566857659876595</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4237782831520274</v>
+        <v>0.4233900381676505</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4908313897992688</v>
+        <v>0.4880887981687831</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>926</v>
@@ -1724,19 +1724,19 @@
         <v>1002680</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>957445</v>
+        <v>955890</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1054842</v>
+        <v>1055577</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4329795788616138</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4134460668921436</v>
+        <v>0.4127748497834844</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4555045369547215</v>
+        <v>0.455821665855491</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>133264</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>117564</v>
+        <v>116291</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>148973</v>
+        <v>147740</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5522291508289412</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4871677392701825</v>
+        <v>0.4818926198683475</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6173236427666311</v>
+        <v>0.6122155821824948</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>80</v>
@@ -2089,19 +2089,19 @@
         <v>77289</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>64422</v>
+        <v>65680</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>90689</v>
+        <v>89417</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4706058609136593</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3922607561750671</v>
+        <v>0.3999213509846694</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5521976655254509</v>
+        <v>0.5444524626330246</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>208</v>
@@ -2110,19 +2110,19 @@
         <v>210553</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>190525</v>
+        <v>192376</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>230194</v>
+        <v>230458</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5191750680481843</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4697899114031571</v>
+        <v>0.474355314141315</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5676043155535944</v>
+        <v>0.5682552323845818</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>108057</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>92348</v>
+        <v>93581</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>123757</v>
+        <v>125030</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4477708491710588</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3826763572333692</v>
+        <v>0.3877844178175051</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5128322607298176</v>
+        <v>0.5181073801316525</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>91</v>
@@ -2160,19 +2160,19 @@
         <v>86943</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>73543</v>
+        <v>74815</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>99810</v>
+        <v>98552</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5293941390863407</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4478023344745489</v>
+        <v>0.4555475373669754</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6077392438249328</v>
+        <v>0.6000786490153306</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>192</v>
@@ -2181,19 +2181,19 @@
         <v>195000</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>175359</v>
+        <v>175095</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>215028</v>
+        <v>213177</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4808249319518157</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4323956844464056</v>
+        <v>0.4317447676154181</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5302100885968429</v>
+        <v>0.5256446858586851</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>223689</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>202127</v>
+        <v>202597</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>244092</v>
+        <v>244511</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5412976965311752</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4891196485139798</v>
+        <v>0.4902585297539011</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5906709021628573</v>
+        <v>0.5916828933120226</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>144</v>
@@ -2306,19 +2306,19 @@
         <v>147557</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>130092</v>
+        <v>130775</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>162299</v>
+        <v>164122</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5409956890832017</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.476961796234599</v>
+        <v>0.4794676790657807</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5950432394891884</v>
+        <v>0.6017296286799575</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>344</v>
@@ -2327,19 +2327,19 @@
         <v>371246</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>345014</v>
+        <v>345166</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>399881</v>
+        <v>396175</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5411776189318331</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5029373814569544</v>
+        <v>0.5031602938181799</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5829200321933438</v>
+        <v>0.5775174481014012</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>189557</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>169154</v>
+        <v>168735</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>211119</v>
+        <v>210649</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4587023034688247</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4093290978371426</v>
+        <v>0.4083171066879774</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5108803514860202</v>
+        <v>0.5097414702460989</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>122</v>
@@ -2377,19 +2377,19 @@
         <v>125194</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>110452</v>
+        <v>108629</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>142659</v>
+        <v>141976</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4590043109167983</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4049567605108116</v>
+        <v>0.3982703713200424</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.523038203765401</v>
+        <v>0.5205323209342193</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>293</v>
@@ -2398,19 +2398,19 @@
         <v>314751</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>286116</v>
+        <v>289822</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>340983</v>
+        <v>340831</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4588223810681669</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4170799678066564</v>
+        <v>0.4224825518985995</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4970626185430456</v>
+        <v>0.49683970618182</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>221657</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>202116</v>
+        <v>200924</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>240556</v>
+        <v>240054</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6110124937180722</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.557145955189744</v>
+        <v>0.5538600272292235</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6631092813255612</v>
+        <v>0.6617251485799367</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>170</v>
@@ -2523,19 +2523,19 @@
         <v>173920</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>158364</v>
+        <v>157057</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>189605</v>
+        <v>188502</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.645287110873538</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5875708016230118</v>
+        <v>0.5827199541950443</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7034826499709057</v>
+        <v>0.6993903300453793</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>371</v>
@@ -2544,19 +2544,19 @@
         <v>395577</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>370163</v>
+        <v>370230</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>419409</v>
+        <v>419254</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6256225298114942</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5854290421322466</v>
+        <v>0.585535323420492</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6633131481883576</v>
+        <v>0.6630682439109347</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>141113</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>122214</v>
+        <v>122716</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>160654</v>
+        <v>161846</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3889875062819278</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3368907186744384</v>
+        <v>0.3382748514200633</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.442854044810256</v>
+        <v>0.446139972770777</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>94</v>
@@ -2594,19 +2594,19 @@
         <v>95604</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>79919</v>
+        <v>81022</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>111160</v>
+        <v>112467</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.354712889126462</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2965173500290944</v>
+        <v>0.3006096699546207</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4124291983769883</v>
+        <v>0.4172800458049558</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>219</v>
@@ -2615,19 +2615,19 @@
         <v>236717</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>212885</v>
+        <v>213040</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>262131</v>
+        <v>262064</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3743774701885058</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3366868518116424</v>
+        <v>0.3369317560890653</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4145709578677534</v>
+        <v>0.4144646765795081</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>199321</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>180151</v>
+        <v>179425</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>219867</v>
+        <v>218330</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4995489048573384</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4515046297484071</v>
+        <v>0.4496861887628088</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5510447199047822</v>
+        <v>0.5471917696182965</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>162</v>
@@ -2740,19 +2740,19 @@
         <v>170488</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>151459</v>
+        <v>152195</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>190409</v>
+        <v>188332</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5238140172924414</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4653492740578451</v>
+        <v>0.4676100218872526</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5850195924554316</v>
+        <v>0.5786406077081874</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>360</v>
@@ -2761,19 +2761,19 @@
         <v>369808</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>345603</v>
+        <v>341970</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>396234</v>
+        <v>397538</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5104501358502411</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4770389438395198</v>
+        <v>0.47202488973144</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5469250697721835</v>
+        <v>0.5487251348181146</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>199680</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>179134</v>
+        <v>180671</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>218850</v>
+        <v>219576</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5004510951426616</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.448955280095218</v>
+        <v>0.452808230381704</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.548495370251593</v>
+        <v>0.5503138112371913</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>145</v>
@@ -2811,19 +2811,19 @@
         <v>154986</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>135065</v>
+        <v>137142</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>174015</v>
+        <v>173279</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4761859827075586</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4149804075445686</v>
+        <v>0.4213593922918129</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5346507259421552</v>
+        <v>0.5323899781127475</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>338</v>
@@ -2832,19 +2832,19 @@
         <v>354667</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>328241</v>
+        <v>326937</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>378872</v>
+        <v>382505</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4895498641497589</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4530749302278164</v>
+        <v>0.4512748651818855</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5229610561604801</v>
+        <v>0.52797511026856</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>777931</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>740851</v>
+        <v>740255</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>821130</v>
+        <v>816648</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5492552692122116</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5230754902832964</v>
+        <v>0.5226546970597004</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5797559278839949</v>
+        <v>0.576591863405193</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>556</v>
@@ -2957,19 +2957,19 @@
         <v>569254</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>535289</v>
+        <v>538748</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>601307</v>
+        <v>601143</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5516127117179139</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5187002024252619</v>
+        <v>0.5220517387985596</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5826716513363942</v>
+        <v>0.5825129860431842</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1283</v>
@@ -2978,19 +2978,19 @@
         <v>1347184</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1293315</v>
+        <v>1298625</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1398208</v>
+        <v>1396241</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5502489460869632</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.528246407919125</v>
+        <v>0.5304153621987521</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5710893755946692</v>
+        <v>0.5702857378981977</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>638406</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>595207</v>
+        <v>599689</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>675486</v>
+        <v>676082</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4507447307877884</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4202440721160052</v>
+        <v>0.423408136594807</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4769245097167036</v>
+        <v>0.4773453029402996</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>452</v>
@@ -3028,19 +3028,19 @@
         <v>462728</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>430675</v>
+        <v>430839</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>496693</v>
+        <v>493234</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4483872882820861</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4173283486636059</v>
+        <v>0.4174870139568154</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.481299797574738</v>
+        <v>0.4779482612014401</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1042</v>
@@ -3049,19 +3049,19 @@
         <v>1101134</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1050110</v>
+        <v>1052077</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1155003</v>
+        <v>1149693</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4497510539130369</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.428910624405331</v>
+        <v>0.4297142621018023</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4717535920808754</v>
+        <v>0.469584637801248</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>45744</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34678</v>
+        <v>32494</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58561</v>
+        <v>57813</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4681572749257505</v>
+        <v>0.4681572749257507</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3548991909169609</v>
+        <v>0.3325521978991234</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5993257351988533</v>
+        <v>0.5916750447576214</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -3414,19 +3414,19 @@
         <v>36908</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28081</v>
+        <v>28653</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45456</v>
+        <v>45493</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4812754739007635</v>
+        <v>0.4812754739007636</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3661759003787856</v>
+        <v>0.3736338942058122</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5927522387769024</v>
+        <v>0.5932274282853582</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>78</v>
@@ -3435,19 +3435,19 @@
         <v>82652</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>66640</v>
+        <v>67791</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>96789</v>
+        <v>98162</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4739256648965854</v>
+        <v>0.4739256648965853</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3821145279843058</v>
+        <v>0.3887170681629872</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5549892994520988</v>
+        <v>0.5628599328040531</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>51967</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>39150</v>
+        <v>39898</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>63033</v>
+        <v>65217</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5318427250742495</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4006742648011467</v>
+        <v>0.4083249552423785</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6451008090830394</v>
+        <v>0.6674478021008763</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>57</v>
@@ -3485,19 +3485,19 @@
         <v>39779</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>31231</v>
+        <v>31194</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48606</v>
+        <v>48034</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5187245260992362</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4072477612230974</v>
+        <v>0.406772571714642</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6338240996212147</v>
+        <v>0.6263661057941879</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>100</v>
@@ -3506,19 +3506,19 @@
         <v>91746</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>77609</v>
+        <v>76236</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>107758</v>
+        <v>106607</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5260743351034147</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4450107005479013</v>
+        <v>0.4371400671959469</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6178854720156944</v>
+        <v>0.6112829318370131</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>70567</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>54861</v>
+        <v>57049</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>84395</v>
+        <v>84852</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4227433805205651</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3286558220119782</v>
+        <v>0.3417627889878915</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.505582302773219</v>
+        <v>0.5083235803283001</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>79</v>
@@ -3631,19 +3631,19 @@
         <v>60259</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50989</v>
+        <v>50366</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>70570</v>
+        <v>70109</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.490239236049151</v>
+        <v>0.4902392360491511</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4148283773093193</v>
+        <v>0.4097521993302997</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.574127436933231</v>
+        <v>0.5703797879587587</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>139</v>
@@ -3652,19 +3652,19 @@
         <v>130826</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>113215</v>
+        <v>113722</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>149580</v>
+        <v>149520</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.4513670024127107</v>
+        <v>0.4513670024127106</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3906079711983858</v>
+        <v>0.3923584552263405</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.516072426697889</v>
+        <v>0.5158653513948273</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>96359</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>82531</v>
+        <v>82074</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>112065</v>
+        <v>109877</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.577256619479435</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.494417697226781</v>
+        <v>0.4916764196716999</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6713441779880217</v>
+        <v>0.6582372110121086</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>81</v>
@@ -3702,19 +3702,19 @@
         <v>62658</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>52347</v>
+        <v>52808</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>71928</v>
+        <v>72551</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5097607639508489</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4258725630667693</v>
+        <v>0.4296202120412412</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5851716226906806</v>
+        <v>0.5902478006697002</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>158</v>
@@ -3723,19 +3723,19 @@
         <v>159017</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>140263</v>
+        <v>140323</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>176628</v>
+        <v>176121</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5486329975872893</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4839275733021107</v>
+        <v>0.4841346486051728</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6093920288016141</v>
+        <v>0.6076415447736595</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>38675</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27813</v>
+        <v>27662</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50343</v>
+        <v>49356</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4192997716094218</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3015333304042985</v>
+        <v>0.2999061752668694</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.54580113274612</v>
+        <v>0.5351002861974844</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -3848,19 +3848,19 @@
         <v>44033</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35330</v>
+        <v>35911</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52463</v>
+        <v>52428</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4842813704755096</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3885587926071358</v>
+        <v>0.3949507371364164</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5769931988171142</v>
+        <v>0.5766070454206794</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>84</v>
@@ -3869,19 +3869,19 @@
         <v>82708</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>68142</v>
+        <v>67905</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>97382</v>
+        <v>96805</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4515579302165088</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3720308060677366</v>
+        <v>0.3707375670312702</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5316703656652064</v>
+        <v>0.5285207865055394</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>53562</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>41894</v>
+        <v>42881</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>64424</v>
+        <v>64575</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5807002283905781</v>
+        <v>0.5807002283905782</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.45419886725388</v>
+        <v>0.4648997138025159</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6984666695957016</v>
+        <v>0.7000938247331306</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>55</v>
@@ -3919,19 +3919,19 @@
         <v>46892</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>38462</v>
+        <v>38497</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>55595</v>
+        <v>55014</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5157186295244904</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4230068011828862</v>
+        <v>0.4233929545793205</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6114412073928641</v>
+        <v>0.6050492628635833</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>94</v>
@@ -3940,19 +3940,19 @@
         <v>100454</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>85780</v>
+        <v>86357</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>115020</v>
+        <v>115257</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5484420697834914</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4683296343347935</v>
+        <v>0.4714792134944607</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6279691939322634</v>
+        <v>0.6292624329687297</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>32683</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22630</v>
+        <v>23109</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>43878</v>
+        <v>43116</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2828865913401006</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1958763733426361</v>
+        <v>0.2000200382182915</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3797869889335235</v>
+        <v>0.3731864935185267</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>46</v>
@@ -4065,19 +4065,19 @@
         <v>35791</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27325</v>
+        <v>27665</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44604</v>
+        <v>44322</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3829415693524974</v>
+        <v>0.3829415693524973</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.292363106019397</v>
+        <v>0.2960014584941061</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4772333073835824</v>
+        <v>0.4742119972294941</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>77</v>
@@ -4086,19 +4086,19 @@
         <v>68474</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>54873</v>
+        <v>56892</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>81653</v>
+        <v>83318</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3276311439550219</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2625556683337144</v>
+        <v>0.2722135319425905</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3906916587405437</v>
+        <v>0.3986587007311207</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>82851</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>71656</v>
+        <v>72418</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>92904</v>
+        <v>92425</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7171134086598994</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6202130110664763</v>
+        <v>0.6268135064814734</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8041236266573639</v>
+        <v>0.7999799617817084</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>76</v>
@@ -4136,19 +4136,19 @@
         <v>57673</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>48860</v>
+        <v>49142</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>66139</v>
+        <v>65799</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6170584306475027</v>
+        <v>0.6170584306475025</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5227666926164175</v>
+        <v>0.525788002770506</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7076368939806027</v>
+        <v>0.7039985415058938</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>151</v>
@@ -4157,19 +4157,19 @@
         <v>140523</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>127344</v>
+        <v>125679</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>154124</v>
+        <v>152105</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6723688560449781</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6093083412594563</v>
+        <v>0.6013412992688794</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7374443316662856</v>
+        <v>0.7277864680574098</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>187669</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>161718</v>
+        <v>163951</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>212968</v>
+        <v>214334</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3972603252073339</v>
+        <v>0.397260325207334</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3423269755702917</v>
+        <v>0.3470534451351499</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4508142320791408</v>
+        <v>0.4537052531069058</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>225</v>
@@ -4282,19 +4282,19 @@
         <v>176990</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>158377</v>
+        <v>159722</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>194883</v>
+        <v>195299</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4609221198754569</v>
+        <v>0.4609221198754568</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4124486453974134</v>
+        <v>0.4159517441710456</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5075187279416602</v>
+        <v>0.5086010149513437</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>378</v>
@@ -4303,19 +4303,19 @@
         <v>364659</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>334475</v>
+        <v>335602</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>394892</v>
+        <v>396302</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.4258049708390717</v>
+        <v>0.4258049708390718</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.390559618313245</v>
+        <v>0.3918756358498318</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.461107150886841</v>
+        <v>0.462753695361647</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>284739</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>259440</v>
+        <v>258074</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>310690</v>
+        <v>308457</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6027396747926661</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5491857679208594</v>
+        <v>0.5462947468930942</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6576730244297083</v>
+        <v>0.65294655486485</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>269</v>
@@ -4353,19 +4353,19 @@
         <v>207002</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>189109</v>
+        <v>188693</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>225615</v>
+        <v>224270</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5390778801245432</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4924812720583398</v>
+        <v>0.4913989850486561</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5875513546025867</v>
+        <v>0.5840482558289545</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>503</v>
@@ -4374,19 +4374,19 @@
         <v>491741</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>461508</v>
+        <v>460098</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>521925</v>
+        <v>520798</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.5741950291609282</v>
+        <v>0.5741950291609283</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.538892849113159</v>
+        <v>0.5372463046383531</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6094403816867551</v>
+        <v>0.6081243641501684</v>
       </c>
     </row>
     <row r="18">
